--- a/algorithms/main_algorithms/convergence_function_values.xlsx
+++ b/algorithms/main_algorithms/convergence_function_values.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-62.77408668838687</v>
+        <v>-118.7243278420762</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-740.6366884086993</v>
+        <v>-241.1675128531985</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-746.1279357244587</v>
+        <v>-243.5872837102646</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-747.0671881082666</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-747.0936236351296</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-747.0936236351296</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-747.0936236351296</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-747.0936236351296</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-747.0936236351296</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-747.0936236351296</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-747.0936236351296</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-748.668388411582</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-749.6737883455136</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-749.6737883455136</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-749.6737883455136</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-749.6737883455136</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-749.6737883455136</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-749.6737883455136</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-749.6737883455136</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-749.6737883455136</v>
+        <v>-247.3212680945771</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-749.6737883455136</v>
+        <v>-247.5462368993757</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.1677864806289</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.1677864806289</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.1677864806289</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.1677864806289</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.1677864806289</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.1677864806289</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.2820562771326</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.2820562771326</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.2820562771326</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-750.3459826123159</v>
+        <v>-249.2829902866887</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-750.8859777729717</v>
+        <v>-250.8036208350579</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-750.8859777729717</v>
+        <v>-250.9977537600563</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-750.8859777729717</v>
+        <v>-250.9977537600563</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-750.8859777729717</v>
+        <v>-251.0366113244303</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-750.8859777729717</v>
+        <v>-251.0610773832497</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-750.8859777729717</v>
+        <v>-251.0610773832497</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-750.8859777729717</v>
+        <v>-251.0610773832497</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-750.8859777729717</v>
+        <v>-251.0610773832497</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-750.8859777729717</v>
+        <v>-251.0610773832497</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-750.8859777729717</v>
+        <v>-251.1548291049184</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-750.8859777729717</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-751.3520883493206</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-751.3520883493206</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-751.3520883493206</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-751.3520883493206</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-751.3520883493206</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-751.3520883493206</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-751.3520883493206</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-751.3520883493206</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-751.3520883493206</v>
+        <v>-252.6843824787518</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-751.7064038084199</v>
+        <v>-253.8233440080894</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-751.7064038084199</v>
+        <v>-254.2226979905174</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-751.9466195005176</v>
+        <v>-254.2384047031802</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-751.9466195005176</v>
+        <v>-254.2384047031802</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-751.9466195005176</v>
+        <v>-254.2466164789707</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-751.9466195005176</v>
+        <v>-254.2466164789707</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-751.9466195005176</v>
+        <v>-254.2820405620463</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-751.9466195005176</v>
+        <v>-254.3391757352089</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-751.9466195005176</v>
+        <v>-254.3391757352089</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-751.9466195005176</v>
+        <v>-254.3391757352089</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-751.9466195005176</v>
+        <v>-254.3391757352089</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-752.2060472520835</v>
+        <v>-255.0724537917815</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-752.3473671312938</v>
+        <v>-255.7636670649587</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-752.5081936271389</v>
+        <v>-256.0893810724352</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.2820229863095</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-752.6137496236465</v>
+        <v>-256.4995306443232</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-752.7053693555555</v>
+        <v>-256.5460333402577</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-752.7053693555555</v>
+        <v>-256.5460333402577</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-752.7053693555555</v>
+        <v>-256.5460333402577</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-752.7053693555555</v>
+        <v>-256.5460333402577</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-752.7053693555555</v>
+        <v>-256.5460333402577</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-752.7053693555555</v>
+        <v>-256.5460333402577</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-752.7053693555555</v>
+        <v>-256.5460333402577</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-752.7053693555555</v>
+        <v>-256.5460333402577</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-752.7053693555555</v>
+        <v>-256.5460333402577</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7189480043152</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7690857234164</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7690857234164</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7690857234164</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7690857234164</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7690857234164</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7690857234164</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7690857234164</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7690857234164</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-752.7952369765381</v>
+        <v>-256.7690857234164</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.8918851251786</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.8918851251786</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.8918851251786</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.8918851251786</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.8918851251786</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.8918851251786</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.8918851251786</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.9032049599643</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.9032049599643</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-752.8399435595844</v>
+        <v>-256.9032049599643</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-752.8399435595844</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-752.8868543517918</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-752.8868543517918</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-752.8868543517918</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-752.8868543517918</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-752.8868543517918</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-752.8868543517918</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-752.8868543517918</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-752.8868543517918</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
     <row r="162">
@@ -1723,407 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-752.8868543517918</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>-752.9298645513862</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-752.9552537451989</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-752.9552537451989</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-752.9552537451989</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-752.9552537451989</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-752.9552537451989</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-752.9552537451989</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-752.9552537451989</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-752.9552537451989</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-752.9552537451989</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-752.981989607844</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-752.9970202389194</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-753.0127276706977</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-753.0127276706977</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-753.0127276706977</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-753.0127276706977</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-753.0127276706977</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-753.0127276706977</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-753.0127276706977</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-753.0127276706977</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-753.0127276706977</v>
+        <v>-257.0657899965188</v>
       </c>
     </row>
   </sheetData>
